--- a/medicine/Mort/Femme_étrangère/Femme_étrangère.xlsx
+++ b/medicine/Mort/Femme_étrangère/Femme_étrangère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Femme_%C3%A9trang%C3%A8re</t>
+          <t>Femme_étrangère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La « Femme étrangère » (en anglais : Female Stranger[1]) fait partie du folklore de la ville d'Alexandria en Virginie, aux États-Unis. Sa tombe, située dans le cimetière de l'église épiscopale de Saint-Paul (en), est une curiosité touristique locale[2]. L'identité de la « Femme étrangère » est inconnue et l'épitaphe particulière de sa pierre tombale[3],[4] incitent à de nombreuses spéculations à son sujet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « Femme étrangère » (en anglais : Female Stranger) fait partie du folklore de la ville d'Alexandria en Virginie, aux États-Unis. Sa tombe, située dans le cimetière de l'église épiscopale de Saint-Paul (en), est une curiosité touristique locale. L'identité de la « Femme étrangère » est inconnue et l'épitaphe particulière de sa pierre tombale, incitent à de nombreuses spéculations à son sujet.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Femme_%C3%A9trang%C3%A8re</t>
+          <t>Femme_étrangère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La légende moderne veut qu'il s'agisse d'une femme tombée malade sur un navire, le Four Sons, sur le chemin d'Halifax aux Antilles. Le capitaine aurait déposé cette femme accompagnée d'un homme — probablement son mari — dans un canot pour leur permettre d'arriver à Alexandria. Installé dans la chambre no 8 de la Gadsby's Tavern (en), un médecin est appelé ainsi que deux femmes sont engagées pour devenir infirmières. La « Femme étrangère » a le visage couvert et les infirmières promettent de garder le silence sur l'identité de cette femme. Au décès de la femme en 1816, l'homme s'occupe seul de la mise en cercueil et de l'enterrement afin de conserver le secret. Puis l'homme disparaît, revenant annuellement déposer une gerbe de fleurs.
 De nombreuses conjectures sur l'identité de cette femme ont été faites, comme celle la présentant comme la femme d'un pirate ou d'un officier de marine, ou celle l'identifiant comme Theodosia Burr Alston, la fille du vice-président des États-Unis Aaron Burr.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Femme_%C3%A9trang%C3%A8re</t>
+          <t>Femme_étrangère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Pierre tombale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La sépulture est surplombée d'une pierre tombale avec une inscription en anglais, dont la traduction est :
 « A la mémoire d'une
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Femme_%C3%A9trang%C3%A8re</t>
+          <t>Femme_étrangère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette histoire a inspiré les romans Narrative of John Trust (1883) de William Francis Carne et 1816 Candles (2013) d'Amanda Brice.
 </t>
